--- a/pred_ohlcv/54_21/2019-10-27 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1075.2859270959</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3877.2442729041</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8935.5175729041</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5136.4505729041</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>12565.4884729041</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>12566.4884729041</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>12566.4884729041</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>14567.4884729041</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>11086.3407729041</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>11088.3407729041</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>11088.3407729041</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>21578.3221376343</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>21565.2787376343</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>21722.2787376343</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>21722.2787376343</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>20722.2787376343</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>20723.2787376343</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>20660.8477376343</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>23144.8043376343</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>39036.8772376343</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1075.2859270959</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3877.2442729041</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>12565.4884729041</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>12566.4884729041</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>12566.4884729041</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>14567.4884729041</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>11086.3407729041</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>11088.3407729041</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>11088.3407729041</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>14946.6723376343</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>9946.672337634298</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>9947.672337634298</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>21578.3221376343</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>21565.2787376343</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>21722.2787376343</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>21722.2787376343</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>20722.2787376343</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>20660.8477376343</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>23144.8043376343</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>23138.5839376343</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
